--- a/data/trans_dic/P36BPD04_R_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R_2023-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.5223067108620636</v>
+        <v>0.5223067108620637</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.4875665249151827</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4667822208692222</v>
+        <v>0.4631756318318184</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4441649609607641</v>
+        <v>0.436264936904273</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4653574978354669</v>
+        <v>0.4669795448311727</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5862647309695044</v>
+        <v>0.579668013273215</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5340312044320212</v>
+        <v>0.5323922110029017</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5379961022560481</v>
+        <v>0.5438096620462999</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6145454027530234</v>
+        <v>0.6153152000673886</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7053907932138515</v>
+        <v>0.7045598949375597</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6707843612487873</v>
+        <v>0.6730484789757202</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7185977948921296</v>
+        <v>0.7175561740115196</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7751275888558359</v>
+        <v>0.77473139600386</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7317791491363319</v>
+        <v>0.735131498275463</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6480416797383864</v>
+        <v>0.6532935752587908</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7880034788960452</v>
+        <v>0.7848622635035487</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7342356984631012</v>
+        <v>0.7310197289477531</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7488900789308139</v>
+        <v>0.7538974572809789</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8564122880083231</v>
+        <v>0.8579832381674299</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7958078985653617</v>
+        <v>0.7940471929396172</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.880010815799216</v>
+        <v>0.8800108157992159</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8660274094295114</v>
+        <v>0.8660274094295115</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8725898516383407</v>
+        <v>0.8725898516383405</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8239526836761618</v>
+        <v>0.8230007559483575</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8269763675452678</v>
+        <v>0.8272091263378742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8409940659365215</v>
+        <v>0.8405821152882514</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9168209779976534</v>
+        <v>0.9154743194350308</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8938690322622902</v>
+        <v>0.8951821206306497</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8968648849998324</v>
+        <v>0.8988900846991389</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.9387301230767932</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9706849333048807</v>
+        <v>0.9706849333048808</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9554891904421606</v>
+        <v>0.9554891904421609</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8989753845144655</v>
+        <v>0.8994986744655884</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9425750696016201</v>
+        <v>0.9393499231232402</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9318735102844924</v>
+        <v>0.9345499247459893</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9653282978619691</v>
+        <v>0.9659003335194113</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9855256688880175</v>
+        <v>0.9842478427275058</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9710791961060491</v>
+        <v>0.9710763779872937</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.7173893507309163</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.7666178408913518</v>
+        <v>0.7666178408913513</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.7416832079770216</v>
+        <v>0.7416832079770217</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6615137896622266</v>
+        <v>0.6595607408275797</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7171480653827742</v>
+        <v>0.7188425432996868</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7054631363922218</v>
+        <v>0.7045520661685242</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7675190526247807</v>
+        <v>0.7664733281364867</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8131547304952078</v>
+        <v>0.8102357367379303</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7757078218852974</v>
+        <v>0.7741897983496973</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.7402832578191597</v>
+        <v>0.7402832578191598</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.7454591066869916</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6983959675420436</v>
+        <v>0.6995202332653512</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7111594227844563</v>
+        <v>0.713834567215346</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7189360173154266</v>
+        <v>0.7125579339960054</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7761726197603031</v>
+        <v>0.7778897713765879</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7764635654027138</v>
+        <v>0.7780724363695439</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.770655540110401</v>
+        <v>0.7665070460706163</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8435876714141288</v>
+        <v>0.8449033207783586</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8749691901486982</v>
+        <v>0.8765404826662504</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.86475299674221</v>
+        <v>0.8663815895294738</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8929686228606711</v>
+        <v>0.8938799382899091</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9130162728429184</v>
+        <v>0.9135552126904094</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8975193824537913</v>
+        <v>0.8974867977073985</v>
       </c>
     </row>
     <row r="28">
@@ -1007,7 +1007,7 @@
         <v>0.759843548727047</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.7923500154718549</v>
+        <v>0.7923500154718548</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.776546887677106</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.7441234551250635</v>
+        <v>0.7438892186784272</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.7792628773010393</v>
+        <v>0.7790793578075638</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7661331051691534</v>
+        <v>0.7659307950908738</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7758259766649906</v>
+        <v>0.776387560975671</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8043776058370031</v>
+        <v>0.8040748818248217</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7867302575493307</v>
+        <v>0.7868303033387067</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>148831</v>
+        <v>147681</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>140383</v>
+        <v>137886</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>295458</v>
+        <v>296488</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>186928</v>
+        <v>184824</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>168786</v>
+        <v>168268</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>341577</v>
+        <v>345268</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>326107</v>
+        <v>326515</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>385492</v>
+        <v>385038</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>722529</v>
+        <v>724968</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>381322</v>
+        <v>380769</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>423603</v>
+        <v>423386</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>788229</v>
+        <v>791840</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>204777</v>
+        <v>206436</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>278322</v>
+        <v>277213</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>491345</v>
+        <v>489193</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>236644</v>
+        <v>238226</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>302484</v>
+        <v>303039</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>532548</v>
+        <v>531370</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>307454</v>
+        <v>307099</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>348952</v>
+        <v>349050</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>668680</v>
+        <v>668353</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>342107</v>
+        <v>341605</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>377178</v>
+        <v>377732</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>713104</v>
+        <v>714714</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>184888</v>
+        <v>184995</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>213798</v>
+        <v>213066</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>403024</v>
+        <v>404182</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>198534</v>
+        <v>198652</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>223540</v>
+        <v>223250</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>419980</v>
+        <v>419979</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>179076</v>
+        <v>178548</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>189148</v>
+        <v>189595</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>377040</v>
+        <v>376553</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>207773</v>
+        <v>207490</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>214470</v>
+        <v>213700</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>414582</v>
+        <v>413771</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>501090</v>
+        <v>501897</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>549056</v>
+        <v>551121</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1070887</v>
+        <v>1061386</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>556894</v>
+        <v>558126</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>599474</v>
+        <v>600716</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1147925</v>
+        <v>1141746</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>673244</v>
+        <v>674294</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>727389</v>
+        <v>728695</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1409031</v>
+        <v>1411685</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>712653</v>
+        <v>713381</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>759019</v>
+        <v>759467</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1462421</v>
+        <v>1462368</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2627174</v>
+        <v>2626347</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2907958</v>
+        <v>2907273</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>5563842</v>
+        <v>5562373</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2739102</v>
+        <v>2741084</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3001678</v>
+        <v>3000549</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>5713424</v>
+        <v>5714151</v>
       </c>
     </row>
     <row r="40">
